--- a/results/ashdod-yam/data/tga_AY.xlsx
+++ b/results/ashdod-yam/data/tga_AY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\ashdod-yam\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697BBE27-361C-4477-AE7C-8883F3266147}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3682B3CF-A48F-4D17-84AC-29EC8986DFB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="105" windowWidth="20070" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10155" yWindow="0" windowWidth="17715" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TGA701-Table" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="264">
   <si>
     <t>Name</t>
   </si>
@@ -31,18 +31,6 @@
     <t>Batch</t>
   </si>
   <si>
-    <t>Initial Mass</t>
-  </si>
-  <si>
-    <t>Moisture Mass</t>
-  </si>
-  <si>
-    <t>550 Mass</t>
-  </si>
-  <si>
-    <t>950 Mass</t>
-  </si>
-  <si>
     <t>AY-1</t>
   </si>
   <si>
@@ -238,30 +226,6 @@
     <t>1.0055</t>
   </si>
   <si>
-    <t>AY-43</t>
-  </si>
-  <si>
-    <t>AY-44</t>
-  </si>
-  <si>
-    <t>1.092</t>
-  </si>
-  <si>
-    <t>AY-45</t>
-  </si>
-  <si>
-    <t>AY-46</t>
-  </si>
-  <si>
-    <t>AY-47</t>
-  </si>
-  <si>
-    <t>AY-48</t>
-  </si>
-  <si>
-    <t>AY-49</t>
-  </si>
-  <si>
     <t>AY-50</t>
   </si>
   <si>
@@ -763,78 +727,6 @@
     <t>1.0217</t>
   </si>
   <si>
-    <t>1.0286</t>
-  </si>
-  <si>
-    <t>0.9947</t>
-  </si>
-  <si>
-    <t>0.8749</t>
-  </si>
-  <si>
-    <t>1.0677</t>
-  </si>
-  <si>
-    <t>1.0215</t>
-  </si>
-  <si>
-    <t>0.9331</t>
-  </si>
-  <si>
-    <t>1.1159</t>
-  </si>
-  <si>
-    <t>1.0899</t>
-  </si>
-  <si>
-    <t>1.0213</t>
-  </si>
-  <si>
-    <t>0.9214</t>
-  </si>
-  <si>
-    <t>1.0783</t>
-  </si>
-  <si>
-    <t>1.0548</t>
-  </si>
-  <si>
-    <t>1.0141</t>
-  </si>
-  <si>
-    <t>0.945</t>
-  </si>
-  <si>
-    <t>1.0973</t>
-  </si>
-  <si>
-    <t>1.0809</t>
-  </si>
-  <si>
-    <t>1.0592</t>
-  </si>
-  <si>
-    <t>0.9755</t>
-  </si>
-  <si>
-    <t>1.0212</t>
-  </si>
-  <si>
-    <t>0.8848</t>
-  </si>
-  <si>
-    <t>1.2083</t>
-  </si>
-  <si>
-    <t>1.2073</t>
-  </si>
-  <si>
-    <t>1.2034</t>
-  </si>
-  <si>
-    <t>0.8457</t>
-  </si>
-  <si>
     <t>1.0576</t>
   </si>
   <si>
@@ -908,6 +800,18 @@
   </si>
   <si>
     <t>1.0681</t>
+  </si>
+  <si>
+    <t>Wet</t>
+  </si>
+  <si>
+    <t>Dry</t>
+  </si>
+  <si>
+    <t>Mass_950</t>
+  </si>
+  <si>
+    <t>Mass_550</t>
   </si>
 </sst>
 </file>
@@ -1754,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,1396 +1681,1235 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>260</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>263</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>44474.694444444445</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>44474.694444444445</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>44474.694444444445</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>44474.694444444445</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>44474.694444444445</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>44474.694444444445</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>44474.694444444445</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>44474.694444444445</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>44474.694444444445</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>44474.694444444445</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>44474.694444444445</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <v>44474.694444444445</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>44474.694444444445</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1">
         <v>44474.694444444445</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>44474.694444444445</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>44474.694444444445</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>44474.694444444445</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1">
         <v>44474.694444444445</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1">
         <v>44474.694444444445</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B28" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B30" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B32" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B33" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B34" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B35" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B39" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B40" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B41" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B42" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B43" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B44" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B45" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B46" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B47" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>247</v>
+        <v>69</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B48" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B49" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>255</v>
+        <v>72</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="B50" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B51" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="1">
-        <v>44535.737500000003</v>
+        <v>74</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" s="1">
-        <v>44535.737500000003</v>
+        <v>77</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>270</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B54" s="1">
-        <v>44535.737500000003</v>
+        <v>78</v>
+      </c>
+      <c r="B54" t="s">
+        <v>75</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="1">
-        <v>44535.737500000003</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="1">
-        <v>44535.737500000003</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B57" s="1">
-        <v>44535.737500000003</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="1">
-        <v>44535.737500000003</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B60" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61" t="s">
-        <v>87</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/results/ashdod-yam/data/tga_AY.xlsx
+++ b/results/ashdod-yam/data/tga_AY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\ashdod-yam\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3682B3CF-A48F-4D17-84AC-29EC8986DFB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0907E4BE-F96B-4BB7-883B-E438BC5C9095}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="0" windowWidth="17715" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11085" yWindow="105" windowWidth="17715" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TGA701-Table" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="275">
   <si>
     <t>Name</t>
   </si>
@@ -812,6 +812,39 @@
   </si>
   <si>
     <t>Mass_550</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Area D acropolis</t>
+  </si>
+  <si>
+    <t>mudbrick</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Area D wall</t>
+  </si>
+  <si>
+    <t>Hellenistic area A</t>
+  </si>
+  <si>
+    <t>Builder's floor</t>
+  </si>
+  <si>
+    <t>PEM</t>
+  </si>
+  <si>
+    <t>mud plaster</t>
+  </si>
+  <si>
+    <t>mud mortar</t>
   </si>
 </sst>
 </file>
@@ -821,7 +854,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -955,6 +988,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1298,11 +1337,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1658,19 +1698,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1692,8 +1734,14 @@
       <c r="G1" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1715,8 +1763,14 @@
       <c r="G2" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1738,8 +1792,14 @@
       <c r="G3" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1761,8 +1821,14 @@
       <c r="G4" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1784,8 +1850,14 @@
       <c r="G5" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1807,8 +1879,14 @@
       <c r="G6" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1830,8 +1908,14 @@
       <c r="G7" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>266</v>
+      </c>
+      <c r="I7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1853,8 +1937,14 @@
       <c r="G8" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>266</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1876,8 +1966,14 @@
       <c r="G9" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>266</v>
+      </c>
+      <c r="I9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1899,8 +1995,14 @@
       <c r="G10" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1922,8 +2024,14 @@
       <c r="G11" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>266</v>
+      </c>
+      <c r="I11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1945,8 +2053,14 @@
       <c r="G12" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>266</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1968,8 +2082,14 @@
       <c r="G13" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>266</v>
+      </c>
+      <c r="I13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1991,8 +2111,14 @@
       <c r="G14" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2014,8 +2140,14 @@
       <c r="G15" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -2037,8 +2169,14 @@
       <c r="G16" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>266</v>
+      </c>
+      <c r="I16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2060,8 +2198,14 @@
       <c r="G17" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>266</v>
+      </c>
+      <c r="I17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2083,8 +2227,14 @@
       <c r="G18" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>266</v>
+      </c>
+      <c r="I18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2106,8 +2256,14 @@
       <c r="G19" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>266</v>
+      </c>
+      <c r="I19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -2129,8 +2285,14 @@
       <c r="G20" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -2152,8 +2314,14 @@
       <c r="G21" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>266</v>
+      </c>
+      <c r="I21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -2175,8 +2343,14 @@
       <c r="G22" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>266</v>
+      </c>
+      <c r="I22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -2198,8 +2372,14 @@
       <c r="G23" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>266</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -2221,8 +2401,14 @@
       <c r="G24" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>266</v>
+      </c>
+      <c r="I24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -2244,8 +2430,14 @@
       <c r="G25" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -2267,8 +2459,14 @@
       <c r="G26" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
@@ -2290,8 +2488,14 @@
       <c r="G27" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -2313,8 +2517,14 @@
       <c r="G28" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -2336,8 +2546,14 @@
       <c r="G29" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
@@ -2359,8 +2575,14 @@
       <c r="G30" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
@@ -2382,8 +2604,14 @@
       <c r="G31" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
@@ -2405,8 +2633,14 @@
       <c r="G32" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
@@ -2428,8 +2662,14 @@
       <c r="G33" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
@@ -2451,8 +2691,14 @@
       <c r="G34" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>51</v>
       </c>
@@ -2474,8 +2720,14 @@
       <c r="G35" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
@@ -2497,8 +2749,14 @@
       <c r="G36" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
@@ -2520,8 +2778,14 @@
       <c r="G37" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>55</v>
       </c>
@@ -2543,8 +2807,14 @@
       <c r="G38" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
@@ -2566,8 +2836,14 @@
       <c r="G39" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>57</v>
       </c>
@@ -2589,8 +2865,14 @@
       <c r="G40" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>266</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>60</v>
       </c>
@@ -2612,8 +2894,14 @@
       <c r="G41" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>61</v>
       </c>
@@ -2635,8 +2923,14 @@
       <c r="G42" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>62</v>
       </c>
@@ -2658,8 +2952,14 @@
       <c r="G43" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I43" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>63</v>
       </c>
@@ -2681,8 +2981,14 @@
       <c r="G44" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I44" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>64</v>
       </c>
@@ -2704,8 +3010,14 @@
       <c r="G45" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -2727,8 +3039,14 @@
       <c r="G46" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>68</v>
       </c>
@@ -2750,8 +3068,14 @@
       <c r="G47" s="3" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>70</v>
       </c>
@@ -2773,8 +3097,14 @@
       <c r="G48" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>71</v>
       </c>
@@ -2796,8 +3126,14 @@
       <c r="G49" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>26</v>
       </c>
@@ -2819,8 +3155,14 @@
       <c r="G50" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>73</v>
       </c>
@@ -2842,8 +3184,14 @@
       <c r="G51" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>74</v>
       </c>
@@ -2865,8 +3213,14 @@
       <c r="G52" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>77</v>
       </c>
@@ -2888,8 +3242,14 @@
       <c r="G53" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>78</v>
       </c>
@@ -2910,6 +3270,12 @@
       </c>
       <c r="G54" s="3" t="s">
         <v>259</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/results/ashdod-yam/data/tga_AY.xlsx
+++ b/results/ashdod-yam/data/tga_AY.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\ashdod-yam\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\R\MB\results\ashdod-yam\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0907E4BE-F96B-4BB7-883B-E438BC5C9095}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11085" yWindow="105" windowWidth="17715" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11085" yWindow="105" windowWidth="17715" windowHeight="15495"/>
   </bookViews>
   <sheets>
     <sheet name="TGA701-Table" sheetId="1" r:id="rId1"/>
@@ -97,760 +96,760 @@
     <t>1.001</t>
   </si>
   <si>
+    <t>kekkila</t>
+  </si>
+  <si>
+    <t>AY-19</t>
+  </si>
+  <si>
+    <t>Batch #60</t>
+  </si>
+  <si>
+    <t>1.013</t>
+  </si>
+  <si>
+    <t>AY-20</t>
+  </si>
+  <si>
+    <t>1.0066</t>
+  </si>
+  <si>
+    <t>AY-21</t>
+  </si>
+  <si>
+    <t>1.0048</t>
+  </si>
+  <si>
+    <t>AY-22</t>
+  </si>
+  <si>
+    <t>1.028</t>
+  </si>
+  <si>
+    <t>1.0097</t>
+  </si>
+  <si>
+    <t>AY-23</t>
+  </si>
+  <si>
+    <t>1.0053</t>
+  </si>
+  <si>
+    <t>AY-24</t>
+  </si>
+  <si>
+    <t>AY-25</t>
+  </si>
+  <si>
+    <t>AY-26</t>
+  </si>
+  <si>
+    <t>1.0051</t>
+  </si>
+  <si>
+    <t>AY-27</t>
+  </si>
+  <si>
+    <t>1.0024</t>
+  </si>
+  <si>
+    <t>AY-28</t>
+  </si>
+  <si>
+    <t>AY-29</t>
+  </si>
+  <si>
+    <t>AY-30</t>
+  </si>
+  <si>
+    <t>AY-31</t>
+  </si>
+  <si>
+    <t>1.042</t>
+  </si>
+  <si>
+    <t>AY-32</t>
+  </si>
+  <si>
+    <t>AY-33</t>
+  </si>
+  <si>
+    <t>AY-34</t>
+  </si>
+  <si>
+    <t>1.053</t>
+  </si>
+  <si>
+    <t>AY-35</t>
+  </si>
+  <si>
+    <t>1.0088</t>
+  </si>
+  <si>
+    <t>AY-6</t>
+  </si>
+  <si>
+    <t>Batch #61</t>
+  </si>
+  <si>
+    <t>1.0085</t>
+  </si>
+  <si>
+    <t>AY-36</t>
+  </si>
+  <si>
+    <t>AY-37</t>
+  </si>
+  <si>
+    <t>AY-38</t>
+  </si>
+  <si>
+    <t>AY-39</t>
+  </si>
+  <si>
+    <t>AY-40</t>
+  </si>
+  <si>
+    <t>1.097</t>
+  </si>
+  <si>
+    <t>AY-42</t>
+  </si>
+  <si>
+    <t>1.0055</t>
+  </si>
+  <si>
+    <t>AY-50</t>
+  </si>
+  <si>
+    <t>1.046</t>
+  </si>
+  <si>
+    <t>AY-51</t>
+  </si>
+  <si>
+    <t>AY-52</t>
+  </si>
+  <si>
+    <t>1.076</t>
+  </si>
+  <si>
+    <t>AY-53</t>
+  </si>
+  <si>
+    <t>5/17/2021 14:17</t>
+  </si>
+  <si>
+    <t>Batch #62</t>
+  </si>
+  <si>
+    <t>AY-54</t>
+  </si>
+  <si>
+    <t>1.0604</t>
+  </si>
+  <si>
+    <t>1.0467</t>
+  </si>
+  <si>
+    <t>1.0216</t>
+  </si>
+  <si>
+    <t>0.9966</t>
+  </si>
+  <si>
+    <t>1.0192</t>
+  </si>
+  <si>
+    <t>0.9844</t>
+  </si>
+  <si>
+    <t>0.9057</t>
+  </si>
+  <si>
+    <t>1.0975</t>
+  </si>
+  <si>
+    <t>1.0782</t>
+  </si>
+  <si>
+    <t>1.0574</t>
+  </si>
+  <si>
+    <t>1.0423</t>
+  </si>
+  <si>
+    <t>0.9969</t>
+  </si>
+  <si>
+    <t>0.9846</t>
+  </si>
+  <si>
+    <t>0.9504</t>
+  </si>
+  <si>
+    <t>1.296</t>
+  </si>
+  <si>
+    <t>1.277</t>
+  </si>
+  <si>
+    <t>1.256</t>
+  </si>
+  <si>
+    <t>1.2108</t>
+  </si>
+  <si>
+    <t>1.2044</t>
+  </si>
+  <si>
+    <t>1.1886</t>
+  </si>
+  <si>
+    <t>1.1707</t>
+  </si>
+  <si>
+    <t>1.1308</t>
+  </si>
+  <si>
+    <t>1.3716</t>
+  </si>
+  <si>
+    <t>1.3542</t>
+  </si>
+  <si>
+    <t>1.3331</t>
+  </si>
+  <si>
+    <t>1.2843</t>
+  </si>
+  <si>
+    <t>1.2244</t>
+  </si>
+  <si>
+    <t>1.2039</t>
+  </si>
+  <si>
+    <t>1.1807</t>
+  </si>
+  <si>
+    <t>1.1428</t>
+  </si>
+  <si>
+    <t>1.334</t>
+  </si>
+  <si>
+    <t>1.3178</t>
+  </si>
+  <si>
+    <t>1.3023</t>
+  </si>
+  <si>
+    <t>1.2519</t>
+  </si>
+  <si>
+    <t>1.3789</t>
+  </si>
+  <si>
+    <t>1.3611</t>
+  </si>
+  <si>
+    <t>1.3441</t>
+  </si>
+  <si>
+    <t>1.3258</t>
+  </si>
+  <si>
+    <t>1.2778</t>
+  </si>
+  <si>
+    <t>1.2628</t>
+  </si>
+  <si>
+    <t>1.2467</t>
+  </si>
+  <si>
+    <t>1.2369</t>
+  </si>
+  <si>
+    <t>1.524</t>
+  </si>
+  <si>
+    <t>1.5057</t>
+  </si>
+  <si>
+    <t>1.4864</t>
+  </si>
+  <si>
+    <t>1.4313</t>
+  </si>
+  <si>
+    <t>1.3389</t>
+  </si>
+  <si>
+    <t>1.314</t>
+  </si>
+  <si>
+    <t>1.2881</t>
+  </si>
+  <si>
+    <t>1.259</t>
+  </si>
+  <si>
+    <t>1.0571</t>
+  </si>
+  <si>
+    <t>1.0235</t>
+  </si>
+  <si>
+    <t>0.9964</t>
+  </si>
+  <si>
+    <t>0.9719</t>
+  </si>
+  <si>
+    <t>1.0417</t>
+  </si>
+  <si>
+    <t>1.0304</t>
+  </si>
+  <si>
+    <t>1.0167</t>
+  </si>
+  <si>
+    <t>0.9815</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
+    <t>0.9709</t>
+  </si>
+  <si>
+    <t>0.9264</t>
+  </si>
+  <si>
+    <t>1.0163</t>
+  </si>
+  <si>
+    <t>0.984</t>
+  </si>
+  <si>
+    <t>0.9482</t>
+  </si>
+  <si>
+    <t>1.0583</t>
+  </si>
+  <si>
+    <t>1.0408</t>
+  </si>
+  <si>
+    <t>1.0206</t>
+  </si>
+  <si>
+    <t>0.9952</t>
+  </si>
+  <si>
+    <t>1.1328</t>
+  </si>
+  <si>
+    <t>1.1027</t>
+  </si>
+  <si>
+    <t>0.7724</t>
+  </si>
+  <si>
+    <t>0.7664</t>
+  </si>
+  <si>
+    <t>1.2916</t>
+  </si>
+  <si>
+    <t>1.2696</t>
+  </si>
+  <si>
+    <t>1.2458</t>
+  </si>
+  <si>
+    <t>1.2049</t>
+  </si>
+  <si>
+    <t>1.0676</t>
+  </si>
+  <si>
+    <t>1.0505</t>
+  </si>
+  <si>
+    <t>1.0242</t>
+  </si>
+  <si>
+    <t>0.9877</t>
+  </si>
+  <si>
+    <t>0.9672</t>
+  </si>
+  <si>
+    <t>1.0198</t>
+  </si>
+  <si>
+    <t>0.9906</t>
+  </si>
+  <si>
+    <t>0.9724</t>
+  </si>
+  <si>
+    <t>0.9885</t>
+  </si>
+  <si>
+    <t>0.9686</t>
+  </si>
+  <si>
+    <t>1.0383</t>
+  </si>
+  <si>
+    <t>1.0232</t>
+  </si>
+  <si>
+    <t>0.9917</t>
+  </si>
+  <si>
+    <t>1.0328</t>
+  </si>
+  <si>
+    <t>1.0168</t>
+  </si>
+  <si>
+    <t>0.9994</t>
+  </si>
+  <si>
+    <t>0.9852</t>
+  </si>
+  <si>
+    <t>1.0452</t>
+  </si>
+  <si>
+    <t>1.0316</t>
+  </si>
+  <si>
+    <t>1.0116</t>
+  </si>
+  <si>
+    <t>1.0361</t>
+  </si>
+  <si>
+    <t>1.0221</t>
+  </si>
+  <si>
+    <t>0.9659</t>
+  </si>
+  <si>
+    <t>1.0327</t>
+  </si>
+  <si>
+    <t>1.0197</t>
+  </si>
+  <si>
+    <t>0.9858</t>
+  </si>
+  <si>
+    <t>1.3169</t>
+  </si>
+  <si>
+    <t>1.302</t>
+  </si>
+  <si>
+    <t>1.2856</t>
+  </si>
+  <si>
+    <t>1.2763</t>
+  </si>
+  <si>
+    <t>1.0823</t>
+  </si>
+  <si>
+    <t>1.0669</t>
+  </si>
+  <si>
+    <t>1.0485</t>
+  </si>
+  <si>
+    <t>1.0735</t>
+  </si>
+  <si>
+    <t>1.0476</t>
+  </si>
+  <si>
+    <t>1.0205</t>
+  </si>
+  <si>
+    <t>0.9872</t>
+  </si>
+  <si>
+    <t>1.0537</t>
+  </si>
+  <si>
+    <t>0.9967</t>
+  </si>
+  <si>
+    <t>1.1039</t>
+  </si>
+  <si>
+    <t>1.0923</t>
+  </si>
+  <si>
+    <t>1.0777</t>
+  </si>
+  <si>
+    <t>1.0619</t>
+  </si>
+  <si>
+    <t>0.9936</t>
+  </si>
+  <si>
+    <t>0.981</t>
+  </si>
+  <si>
+    <t>0.9727</t>
+  </si>
+  <si>
+    <t>1.1053</t>
+  </si>
+  <si>
+    <t>1.0869</t>
+  </si>
+  <si>
+    <t>1.0685</t>
+  </si>
+  <si>
+    <t>1.0269</t>
+  </si>
+  <si>
+    <t>0.9886</t>
+  </si>
+  <si>
+    <t>0.9649</t>
+  </si>
+  <si>
+    <t>1.1307</t>
+  </si>
+  <si>
+    <t>1.1005</t>
+  </si>
+  <si>
+    <t>0.7572</t>
+  </si>
+  <si>
+    <t>0.7511</t>
+  </si>
+  <si>
+    <t>0.9942</t>
+  </si>
+  <si>
+    <t>0.9777</t>
+  </si>
+  <si>
+    <t>0.9651</t>
+  </si>
+  <si>
+    <t>1.0484</t>
+  </si>
+  <si>
+    <t>1.0238</t>
+  </si>
+  <si>
+    <t>0.9982</t>
+  </si>
+  <si>
+    <t>0.9743</t>
+  </si>
+  <si>
+    <t>1.1622</t>
+  </si>
+  <si>
+    <t>1.1507</t>
+  </si>
+  <si>
+    <t>1.1383</t>
+  </si>
+  <si>
+    <t>1.1292</t>
+  </si>
+  <si>
+    <t>1.0945</t>
+  </si>
+  <si>
+    <t>1.0717</t>
+  </si>
+  <si>
+    <t>1.0307</t>
+  </si>
+  <si>
+    <t>1.0894</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>1.0495</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>1.1549</t>
+  </si>
+  <si>
+    <t>1.1265</t>
+  </si>
+  <si>
+    <t>1.0696</t>
+  </si>
+  <si>
+    <t>1.0545</t>
+  </si>
+  <si>
+    <t>1.0389</t>
+  </si>
+  <si>
+    <t>1.0217</t>
+  </si>
+  <si>
+    <t>1.0576</t>
+  </si>
+  <si>
+    <t>1.0319</t>
+  </si>
+  <si>
+    <t>1.0159</t>
+  </si>
+  <si>
+    <t>1.1269</t>
+  </si>
+  <si>
+    <t>1.1152</t>
+  </si>
+  <si>
+    <t>1.1009</t>
+  </si>
+  <si>
+    <t>1.0825</t>
+  </si>
+  <si>
+    <t>1.1057</t>
+  </si>
+  <si>
+    <t>1.0518</t>
+  </si>
+  <si>
+    <t>0.7247</t>
+  </si>
+  <si>
+    <t>0.7186</t>
+  </si>
+  <si>
+    <t>1.5207</t>
+  </si>
+  <si>
+    <t>1.4971</t>
+  </si>
+  <si>
+    <t>1.4711</t>
+  </si>
+  <si>
+    <t>1.4469</t>
+  </si>
+  <si>
+    <t>1.0381</t>
+  </si>
+  <si>
+    <t>1.0261</t>
+  </si>
+  <si>
+    <t>0.9577</t>
+  </si>
+  <si>
+    <t>1.1051</t>
+  </si>
+  <si>
+    <t>1.0903</t>
+  </si>
+  <si>
+    <t>1.0745</t>
+  </si>
+  <si>
+    <t>1.1362</t>
+  </si>
+  <si>
+    <t>1.1204</t>
+  </si>
+  <si>
+    <t>1.1019</t>
+  </si>
+  <si>
+    <t>1.0681</t>
+  </si>
+  <si>
+    <t>Wet</t>
+  </si>
+  <si>
+    <t>Dry</t>
+  </si>
+  <si>
+    <t>Mass_950</t>
+  </si>
+  <si>
+    <t>Mass_550</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Area D acropolis</t>
+  </si>
+  <si>
+    <t>mudbrick</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Area D wall</t>
+  </si>
+  <si>
+    <t>Hellenistic area A</t>
+  </si>
+  <si>
+    <t>Builder's floor</t>
+  </si>
+  <si>
+    <t>PEM</t>
+  </si>
+  <si>
+    <t>mud plaster</t>
+  </si>
+  <si>
+    <t>mud mortar</t>
+  </si>
+  <si>
     <t>AY-1 (2)</t>
   </si>
   <si>
-    <t>kekkila</t>
-  </si>
-  <si>
-    <t>AY-19</t>
-  </si>
-  <si>
-    <t>Batch #60</t>
-  </si>
-  <si>
     <t>AY-19 (2)</t>
   </si>
   <si>
-    <t>1.013</t>
-  </si>
-  <si>
-    <t>AY-20</t>
-  </si>
-  <si>
-    <t>1.0066</t>
-  </si>
-  <si>
-    <t>AY-21</t>
-  </si>
-  <si>
-    <t>1.0048</t>
-  </si>
-  <si>
-    <t>AY-22</t>
-  </si>
-  <si>
-    <t>1.028</t>
-  </si>
-  <si>
-    <t>1.0097</t>
-  </si>
-  <si>
-    <t>AY-23</t>
-  </si>
-  <si>
-    <t>1.0053</t>
-  </si>
-  <si>
-    <t>AY-24</t>
-  </si>
-  <si>
-    <t>AY-25</t>
-  </si>
-  <si>
-    <t>AY-26</t>
-  </si>
-  <si>
-    <t>1.0051</t>
-  </si>
-  <si>
-    <t>AY-27</t>
-  </si>
-  <si>
-    <t>1.0024</t>
-  </si>
-  <si>
-    <t>AY-28</t>
-  </si>
-  <si>
-    <t>AY-29</t>
-  </si>
-  <si>
-    <t>AY-30</t>
-  </si>
-  <si>
-    <t>AY-31</t>
-  </si>
-  <si>
-    <t>1.042</t>
-  </si>
-  <si>
-    <t>AY-32</t>
-  </si>
-  <si>
-    <t>AY-33</t>
-  </si>
-  <si>
-    <t>AY-34</t>
-  </si>
-  <si>
-    <t>1.053</t>
-  </si>
-  <si>
-    <t>AY-35</t>
-  </si>
-  <si>
-    <t>1.0088</t>
-  </si>
-  <si>
-    <t>AY-6</t>
-  </si>
-  <si>
-    <t>Batch #61</t>
-  </si>
-  <si>
-    <t>1.0085</t>
-  </si>
-  <si>
-    <t>AY-36</t>
-  </si>
-  <si>
-    <t>AY-37</t>
-  </si>
-  <si>
-    <t>AY-38</t>
-  </si>
-  <si>
-    <t>AY-39</t>
-  </si>
-  <si>
-    <t>AY-40</t>
-  </si>
-  <si>
-    <t>1.097</t>
-  </si>
-  <si>
-    <t>AY-42</t>
-  </si>
-  <si>
-    <t>1.0055</t>
-  </si>
-  <si>
-    <t>AY-50</t>
-  </si>
-  <si>
-    <t>1.046</t>
-  </si>
-  <si>
-    <t>AY-51</t>
-  </si>
-  <si>
-    <t>AY-52</t>
-  </si>
-  <si>
-    <t>1.076</t>
-  </si>
-  <si>
     <t>AY-42 (2)</t>
   </si>
   <si>
-    <t>AY-53</t>
-  </si>
-  <si>
-    <t>5/17/2021 14:17</t>
-  </si>
-  <si>
-    <t>Batch #62</t>
-  </si>
-  <si>
     <t>AY-53 (2)</t>
-  </si>
-  <si>
-    <t>AY-54</t>
-  </si>
-  <si>
-    <t>1.0604</t>
-  </si>
-  <si>
-    <t>1.0467</t>
-  </si>
-  <si>
-    <t>1.0216</t>
-  </si>
-  <si>
-    <t>0.9966</t>
-  </si>
-  <si>
-    <t>1.0192</t>
-  </si>
-  <si>
-    <t>0.9844</t>
-  </si>
-  <si>
-    <t>0.9057</t>
-  </si>
-  <si>
-    <t>1.0975</t>
-  </si>
-  <si>
-    <t>1.0782</t>
-  </si>
-  <si>
-    <t>1.0574</t>
-  </si>
-  <si>
-    <t>1.0423</t>
-  </si>
-  <si>
-    <t>0.9969</t>
-  </si>
-  <si>
-    <t>0.9846</t>
-  </si>
-  <si>
-    <t>0.9504</t>
-  </si>
-  <si>
-    <t>1.296</t>
-  </si>
-  <si>
-    <t>1.277</t>
-  </si>
-  <si>
-    <t>1.256</t>
-  </si>
-  <si>
-    <t>1.2108</t>
-  </si>
-  <si>
-    <t>1.2044</t>
-  </si>
-  <si>
-    <t>1.1886</t>
-  </si>
-  <si>
-    <t>1.1707</t>
-  </si>
-  <si>
-    <t>1.1308</t>
-  </si>
-  <si>
-    <t>1.3716</t>
-  </si>
-  <si>
-    <t>1.3542</t>
-  </si>
-  <si>
-    <t>1.3331</t>
-  </si>
-  <si>
-    <t>1.2843</t>
-  </si>
-  <si>
-    <t>1.2244</t>
-  </si>
-  <si>
-    <t>1.2039</t>
-  </si>
-  <si>
-    <t>1.1807</t>
-  </si>
-  <si>
-    <t>1.1428</t>
-  </si>
-  <si>
-    <t>1.334</t>
-  </si>
-  <si>
-    <t>1.3178</t>
-  </si>
-  <si>
-    <t>1.3023</t>
-  </si>
-  <si>
-    <t>1.2519</t>
-  </si>
-  <si>
-    <t>1.3789</t>
-  </si>
-  <si>
-    <t>1.3611</t>
-  </si>
-  <si>
-    <t>1.3441</t>
-  </si>
-  <si>
-    <t>1.3258</t>
-  </si>
-  <si>
-    <t>1.2778</t>
-  </si>
-  <si>
-    <t>1.2628</t>
-  </si>
-  <si>
-    <t>1.2467</t>
-  </si>
-  <si>
-    <t>1.2369</t>
-  </si>
-  <si>
-    <t>1.524</t>
-  </si>
-  <si>
-    <t>1.5057</t>
-  </si>
-  <si>
-    <t>1.4864</t>
-  </si>
-  <si>
-    <t>1.4313</t>
-  </si>
-  <si>
-    <t>1.3389</t>
-  </si>
-  <si>
-    <t>1.314</t>
-  </si>
-  <si>
-    <t>1.2881</t>
-  </si>
-  <si>
-    <t>1.259</t>
-  </si>
-  <si>
-    <t>1.0571</t>
-  </si>
-  <si>
-    <t>1.0235</t>
-  </si>
-  <si>
-    <t>0.9964</t>
-  </si>
-  <si>
-    <t>0.9719</t>
-  </si>
-  <si>
-    <t>1.0417</t>
-  </si>
-  <si>
-    <t>1.0304</t>
-  </si>
-  <si>
-    <t>1.0167</t>
-  </si>
-  <si>
-    <t>0.9815</t>
-  </si>
-  <si>
-    <t>0.987</t>
-  </si>
-  <si>
-    <t>0.9709</t>
-  </si>
-  <si>
-    <t>0.9264</t>
-  </si>
-  <si>
-    <t>1.0163</t>
-  </si>
-  <si>
-    <t>0.984</t>
-  </si>
-  <si>
-    <t>0.9482</t>
-  </si>
-  <si>
-    <t>1.0583</t>
-  </si>
-  <si>
-    <t>1.0408</t>
-  </si>
-  <si>
-    <t>1.0206</t>
-  </si>
-  <si>
-    <t>0.9952</t>
-  </si>
-  <si>
-    <t>1.1328</t>
-  </si>
-  <si>
-    <t>1.1027</t>
-  </si>
-  <si>
-    <t>0.7724</t>
-  </si>
-  <si>
-    <t>0.7664</t>
-  </si>
-  <si>
-    <t>1.2916</t>
-  </si>
-  <si>
-    <t>1.2696</t>
-  </si>
-  <si>
-    <t>1.2458</t>
-  </si>
-  <si>
-    <t>1.2049</t>
-  </si>
-  <si>
-    <t>1.0676</t>
-  </si>
-  <si>
-    <t>1.0505</t>
-  </si>
-  <si>
-    <t>1.0242</t>
-  </si>
-  <si>
-    <t>0.9877</t>
-  </si>
-  <si>
-    <t>0.9672</t>
-  </si>
-  <si>
-    <t>1.0198</t>
-  </si>
-  <si>
-    <t>0.9906</t>
-  </si>
-  <si>
-    <t>0.9724</t>
-  </si>
-  <si>
-    <t>0.9885</t>
-  </si>
-  <si>
-    <t>0.9686</t>
-  </si>
-  <si>
-    <t>1.0383</t>
-  </si>
-  <si>
-    <t>1.0232</t>
-  </si>
-  <si>
-    <t>0.9917</t>
-  </si>
-  <si>
-    <t>1.0328</t>
-  </si>
-  <si>
-    <t>1.0168</t>
-  </si>
-  <si>
-    <t>0.9994</t>
-  </si>
-  <si>
-    <t>0.9852</t>
-  </si>
-  <si>
-    <t>1.0452</t>
-  </si>
-  <si>
-    <t>1.0316</t>
-  </si>
-  <si>
-    <t>1.0116</t>
-  </si>
-  <si>
-    <t>1.0361</t>
-  </si>
-  <si>
-    <t>1.0221</t>
-  </si>
-  <si>
-    <t>0.9659</t>
-  </si>
-  <si>
-    <t>1.0327</t>
-  </si>
-  <si>
-    <t>1.0197</t>
-  </si>
-  <si>
-    <t>0.9858</t>
-  </si>
-  <si>
-    <t>1.3169</t>
-  </si>
-  <si>
-    <t>1.302</t>
-  </si>
-  <si>
-    <t>1.2856</t>
-  </si>
-  <si>
-    <t>1.2763</t>
-  </si>
-  <si>
-    <t>1.0823</t>
-  </si>
-  <si>
-    <t>1.0669</t>
-  </si>
-  <si>
-    <t>1.0485</t>
-  </si>
-  <si>
-    <t>1.0735</t>
-  </si>
-  <si>
-    <t>1.0476</t>
-  </si>
-  <si>
-    <t>1.0205</t>
-  </si>
-  <si>
-    <t>0.9872</t>
-  </si>
-  <si>
-    <t>1.0537</t>
-  </si>
-  <si>
-    <t>0.9967</t>
-  </si>
-  <si>
-    <t>1.1039</t>
-  </si>
-  <si>
-    <t>1.0923</t>
-  </si>
-  <si>
-    <t>1.0777</t>
-  </si>
-  <si>
-    <t>1.0619</t>
-  </si>
-  <si>
-    <t>0.9936</t>
-  </si>
-  <si>
-    <t>0.981</t>
-  </si>
-  <si>
-    <t>0.9727</t>
-  </si>
-  <si>
-    <t>1.1053</t>
-  </si>
-  <si>
-    <t>1.0869</t>
-  </si>
-  <si>
-    <t>1.0685</t>
-  </si>
-  <si>
-    <t>1.0269</t>
-  </si>
-  <si>
-    <t>0.9886</t>
-  </si>
-  <si>
-    <t>0.9649</t>
-  </si>
-  <si>
-    <t>1.1307</t>
-  </si>
-  <si>
-    <t>1.1005</t>
-  </si>
-  <si>
-    <t>0.7572</t>
-  </si>
-  <si>
-    <t>0.7511</t>
-  </si>
-  <si>
-    <t>0.9942</t>
-  </si>
-  <si>
-    <t>0.9777</t>
-  </si>
-  <si>
-    <t>0.9651</t>
-  </si>
-  <si>
-    <t>1.0484</t>
-  </si>
-  <si>
-    <t>1.0238</t>
-  </si>
-  <si>
-    <t>0.9982</t>
-  </si>
-  <si>
-    <t>0.9743</t>
-  </si>
-  <si>
-    <t>1.1622</t>
-  </si>
-  <si>
-    <t>1.1507</t>
-  </si>
-  <si>
-    <t>1.1383</t>
-  </si>
-  <si>
-    <t>1.1292</t>
-  </si>
-  <si>
-    <t>1.0945</t>
-  </si>
-  <si>
-    <t>1.0717</t>
-  </si>
-  <si>
-    <t>1.0307</t>
-  </si>
-  <si>
-    <t>1.0894</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>1.0495</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>1.1549</t>
-  </si>
-  <si>
-    <t>1.1265</t>
-  </si>
-  <si>
-    <t>1.0696</t>
-  </si>
-  <si>
-    <t>1.0545</t>
-  </si>
-  <si>
-    <t>1.0389</t>
-  </si>
-  <si>
-    <t>1.0217</t>
-  </si>
-  <si>
-    <t>1.0576</t>
-  </si>
-  <si>
-    <t>1.0319</t>
-  </si>
-  <si>
-    <t>1.0159</t>
-  </si>
-  <si>
-    <t>1.1269</t>
-  </si>
-  <si>
-    <t>1.1152</t>
-  </si>
-  <si>
-    <t>1.1009</t>
-  </si>
-  <si>
-    <t>1.0825</t>
-  </si>
-  <si>
-    <t>1.1057</t>
-  </si>
-  <si>
-    <t>1.0518</t>
-  </si>
-  <si>
-    <t>0.7247</t>
-  </si>
-  <si>
-    <t>0.7186</t>
-  </si>
-  <si>
-    <t>1.5207</t>
-  </si>
-  <si>
-    <t>1.4971</t>
-  </si>
-  <si>
-    <t>1.4711</t>
-  </si>
-  <si>
-    <t>1.4469</t>
-  </si>
-  <si>
-    <t>1.0381</t>
-  </si>
-  <si>
-    <t>1.0261</t>
-  </si>
-  <si>
-    <t>0.9577</t>
-  </si>
-  <si>
-    <t>1.1051</t>
-  </si>
-  <si>
-    <t>1.0903</t>
-  </si>
-  <si>
-    <t>1.0745</t>
-  </si>
-  <si>
-    <t>1.1362</t>
-  </si>
-  <si>
-    <t>1.1204</t>
-  </si>
-  <si>
-    <t>1.1019</t>
-  </si>
-  <si>
-    <t>1.0681</t>
-  </si>
-  <si>
-    <t>Wet</t>
-  </si>
-  <si>
-    <t>Dry</t>
-  </si>
-  <si>
-    <t>Mass_950</t>
-  </si>
-  <si>
-    <t>Mass_550</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>Area D acropolis</t>
-  </si>
-  <si>
-    <t>mudbrick</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Area D wall</t>
-  </si>
-  <si>
-    <t>Hellenistic area A</t>
-  </si>
-  <si>
-    <t>Builder's floor</t>
-  </si>
-  <si>
-    <t>PEM</t>
-  </si>
-  <si>
-    <t>mud plaster</t>
-  </si>
-  <si>
-    <t>mud mortar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -1697,11 +1696,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,22 +1722,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1752,22 +1751,22 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1781,22 +1780,22 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1810,22 +1809,22 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1842,19 +1841,19 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1868,22 +1867,22 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1897,22 +1896,22 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1926,22 +1925,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1955,22 +1954,22 @@
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1984,22 +1983,22 @@
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2013,22 +2012,22 @@
         <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2042,22 +2041,22 @@
         <v>4</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2071,22 +2070,22 @@
         <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H13" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I13" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2100,22 +2099,22 @@
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2129,22 +2128,22 @@
         <v>4</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H15" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I15" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2158,22 +2157,22 @@
         <v>4</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H16" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I16" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2190,19 +2189,19 @@
         <v>22</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H17" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2216,27 +2215,27 @@
         <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I18" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>271</v>
       </c>
       <c r="B19" s="1">
         <v>44474.694444444445</v>
@@ -2245,27 +2244,27 @@
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1">
         <v>44474.694444444445</v>
@@ -2274,1008 +2273,1008 @@
         <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H21" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I21" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>272</v>
       </c>
       <c r="B22" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="H22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H23" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H24" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I24" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I25" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I26" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I27" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I28" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I29" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H30" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I31" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H32" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I33" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I34" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B35" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I35" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B36" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I36" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I37" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I38" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="1">
         <v>44505.611111111109</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B40" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H40" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B41" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I41" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B42" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I42" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I43" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I44" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B45" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H45" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B46" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B47" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B48" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B49" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B50" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>73</v>
+        <v>273</v>
       </c>
       <c r="B51" s="1">
         <v>44535.737500000003</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
